--- a/DashaCalculation.xlsx
+++ b/DashaCalculation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\astro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\Astro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="3105" windowWidth="19965" windowHeight="7425"/>
+    <workbookView xWindow="2940" yWindow="3105" windowWidth="19965" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dasha Duration" sheetId="2" r:id="rId1"/>
@@ -1358,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D14" s="56"/>
       <c r="F14" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="13">
         <v>8</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="J14" s="87">
         <f>F14*30+G14+H14/60+I14/3600</f>
-        <v>8.7586111111111116</v>
+        <v>38.758611111111108</v>
       </c>
       <c r="K14" s="35" t="s">
         <v>72</v>
@@ -1443,37 +1443,37 @@
       </c>
       <c r="F15" s="5">
         <f>TRUNC(K15-E15*30)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G15" s="48">
         <f>(K15-(E15*30+F15))*60</f>
-        <v>20.000000000000036</v>
+        <v>40.000000000000071</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
       <c r="K15" s="1">
         <f>'Basic Data'!H4</f>
-        <v>13.333333333333334</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E16">
         <f>TRUNC(K16/30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
         <f>TRUNC(K16-E16*30)</f>
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G16" s="48">
         <f>(K16-(E16*30+F16))*60</f>
-        <v>40.000000000000071</v>
+        <v>0</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="5"/>
       <c r="K16" s="1">
         <f>'Basic Data'!H5</f>
-        <v>26.666666666666668</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -1530,16 +1530,16 @@
       <c r="F20" s="5"/>
       <c r="G20" s="48">
         <f>I20*60</f>
-        <v>-274.48333333333335</v>
+        <v>725.51666666666642</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="5">
         <f>J14-K15</f>
-        <v>-4.5747222222222224</v>
+        <v>12.09194444444444</v>
       </c>
       <c r="L20" t="str">
         <f>'Basic Data'!J5</f>
-        <v>Bharni</v>
+        <v>Kritika</v>
       </c>
       <c r="Q20" s="57"/>
     </row>
@@ -1552,7 +1552,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="48">
         <f>Dasha!K5</f>
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
@@ -1598,24 +1598,24 @@
       </c>
       <c r="E24" s="20">
         <f>TRUNC(K24/12)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F24" s="51">
         <f>TRUNC(K24-E24*12)</f>
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="G24" s="52">
         <f>TRUNC((K24-(E24*12+F24))*30)</f>
-        <v>-18</v>
+        <v>22</v>
       </c>
       <c r="H24" s="51">
         <f>(K24*30-(E24*360+F24*30+G24))*60</f>
-        <v>-28.012499999997544</v>
+        <v>57.899999999988268</v>
       </c>
       <c r="I24" s="5"/>
       <c r="K24" s="17">
         <f>G20*G21/G22</f>
-        <v>-21.615562499999999</v>
+        <v>21.765499999999992</v>
       </c>
       <c r="L24" t="s">
         <v>66</v>
@@ -1627,11 +1627,11 @@
       <c r="B25" s="57"/>
       <c r="E25" s="20">
         <f>TRUNC(K25/12)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F25" s="51">
         <f>TRUNC(K25-E25*12)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G25" s="52">
         <f>TRUNC((K25-(E25*12+F25))*30)</f>
@@ -1644,7 +1644,7 @@
       <c r="I25" s="5"/>
       <c r="K25" s="17">
         <f>Dasha!K9</f>
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="57"/>
     </row>
@@ -1653,24 +1653,24 @@
       <c r="B26" s="57"/>
       <c r="E26" s="20">
         <f>TRUNC(K26/12)</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F26" s="51">
         <f>TRUNC(K26-E26*12)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26" s="52">
         <f>TRUNC((K26-(E26*12+F26))*30)</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H26" s="51">
         <f>(K26*30-(E26*360+F26*30+G26))*60</f>
-        <v>31.987499999995634</v>
+        <v>57.899999999988268</v>
       </c>
       <c r="I26" s="5"/>
       <c r="K26" s="17">
         <f>SUM(K24:K25)</f>
-        <v>167.38443749999999</v>
+        <v>21.765499999999992</v>
       </c>
       <c r="Q26" s="57"/>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="B27" s="57"/>
       <c r="E27" s="20">
         <f>TRUNC(K27/12)</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F27" s="51">
         <f>TRUNC(K27-E27*12)</f>
@@ -1696,7 +1696,7 @@
       <c r="I27" s="5"/>
       <c r="K27">
         <f>Dasha!L9</f>
-        <v>252</v>
+        <v>72</v>
       </c>
       <c r="Q27" s="57"/>
     </row>
@@ -1767,25 +1767,25 @@
       </c>
       <c r="E31" s="82">
         <f>TRUNC(K31/12)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F31" s="81">
         <f>TRUNC(K31-E31*12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="80">
         <f>TRUNC((K31-(E31*12+F31))*30)</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H31" s="81">
         <f>(K31*30-(E31*360+F31*30+G31))*60</f>
-        <v>28.012500000004366</v>
+        <v>2.1000000000185537</v>
       </c>
       <c r="I31" s="73"/>
       <c r="J31" s="70"/>
       <c r="K31" s="69">
         <f>K27-K26</f>
-        <v>84.61556250000001</v>
+        <v>50.234500000000011</v>
       </c>
       <c r="L31" s="63"/>
       <c r="M31" s="63"/>
@@ -1855,23 +1855,23 @@
       <c r="D34" s="36"/>
       <c r="E34" s="37" t="str">
         <f>Dasha!J5</f>
-        <v>Sukra</v>
+        <v>Rabi</v>
       </c>
       <c r="F34" s="38">
         <f>E26</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G34" s="38">
         <f>F26</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H34" s="38">
         <f>G26</f>
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I34" s="39">
         <f>H26</f>
-        <v>31.987499999995634</v>
+        <v>57.899999999988268</v>
       </c>
       <c r="J34" s="53"/>
       <c r="P34" s="63"/>
@@ -1886,23 +1886,23 @@
       <c r="D35" s="40"/>
       <c r="E35" s="41" t="str">
         <f>Dasha!J5</f>
-        <v>Sukra</v>
+        <v>Rabi</v>
       </c>
       <c r="F35" s="42">
         <f>E31</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G35" s="42">
         <f>F31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" s="42">
         <f>G31</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="I35" s="43">
         <f>H31</f>
-        <v>28.012500000004366</v>
+        <v>2.1000000000185537</v>
       </c>
       <c r="J35" s="53"/>
       <c r="P35" s="63"/>
@@ -1959,7 +1959,7 @@
       <c r="J38" s="70"/>
       <c r="K38" s="70">
         <f>J14</f>
-        <v>8.7586111111111116</v>
+        <v>38.758611111111108</v>
       </c>
       <c r="L38" s="63"/>
       <c r="M38" s="63"/>
@@ -1981,7 +1981,7 @@
       <c r="J39" s="70"/>
       <c r="K39" s="70">
         <f>'Basic Data'!H4</f>
-        <v>13.333333333333334</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="L39" s="63"/>
       <c r="M39" s="63"/>
@@ -2004,7 +2004,7 @@
       <c r="J40" s="70"/>
       <c r="K40" s="70">
         <f>K38-K39</f>
-        <v>-4.5747222222222224</v>
+        <v>12.09194444444444</v>
       </c>
       <c r="L40" s="63"/>
       <c r="M40" s="63"/>
@@ -2026,7 +2026,7 @@
       <c r="J41" s="70"/>
       <c r="K41" s="63">
         <f>K40*60</f>
-        <v>-274.48333333333335</v>
+        <v>725.51666666666642</v>
       </c>
       <c r="L41" s="63"/>
       <c r="M41" s="63"/>
@@ -2046,7 +2046,7 @@
       <c r="F42" s="73"/>
       <c r="G42" s="74">
         <f>K41</f>
-        <v>-274.48333333333335</v>
+        <v>725.51666666666642</v>
       </c>
       <c r="H42" s="63"/>
       <c r="I42" s="70"/>
@@ -2070,7 +2070,7 @@
       <c r="F43" s="75"/>
       <c r="G43" s="74">
         <f>vinsottari!I2</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H43" s="63"/>
       <c r="I43" s="70"/>
@@ -2142,61 +2142,61 @@
       </c>
       <c r="E46" s="78">
         <f>L46</f>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="F46" s="79">
         <f>O46</f>
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="G46" s="80">
         <f>R46</f>
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="H46" s="81">
         <f>T46</f>
-        <v>-21</v>
+        <v>53</v>
       </c>
       <c r="I46" s="73"/>
       <c r="J46" s="70"/>
       <c r="K46" s="69">
         <f>G42*G43/G44</f>
-        <v>-6.8620833333333335</v>
+        <v>5.4413749999999981</v>
       </c>
       <c r="L46" s="69">
         <f>TRUNC(K46)</f>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="M46" s="69">
         <f>K46-L46</f>
-        <v>-0.86208333333333353</v>
+        <v>0.44137499999999807</v>
       </c>
       <c r="N46" s="63">
         <f>M46*12</f>
-        <v>-10.345000000000002</v>
+        <v>5.2964999999999769</v>
       </c>
       <c r="O46" s="63">
         <f>TRUNC(N46)</f>
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="P46" s="63">
         <f>N46-O46</f>
-        <v>-0.34500000000000242</v>
+        <v>0.29649999999997689</v>
       </c>
       <c r="Q46" s="57">
         <f>P46*30</f>
-        <v>-10.350000000000072</v>
+        <v>8.8949999999993068</v>
       </c>
       <c r="R46">
         <f>TRUNC(Q46)</f>
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="S46">
         <f>Q46-R46</f>
-        <v>-0.35000000000007248</v>
+        <v>0.89499999999930679</v>
       </c>
       <c r="T46">
         <f>TRUNC(S46*60)</f>
-        <v>-21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
@@ -2240,25 +2240,25 @@
       <c r="D48" s="63"/>
       <c r="E48" s="78">
         <f>E46</f>
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="F48" s="79">
         <f>F46</f>
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="G48" s="80">
         <f>G46</f>
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="H48" s="81">
         <f>H46</f>
-        <v>-21</v>
+        <v>53</v>
       </c>
       <c r="I48" s="73"/>
       <c r="J48" s="70"/>
       <c r="K48" s="69">
         <f>SUM(K46:K47)</f>
-        <v>-6.8620833333333335</v>
+        <v>5.4413749999999981</v>
       </c>
       <c r="L48" s="63"/>
       <c r="M48" s="63"/>
@@ -2274,11 +2274,11 @@
       <c r="D49" s="63"/>
       <c r="E49" s="82">
         <f>TRUNC(K49/12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="81">
         <f>TRUNC(K49-E49*12)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G49" s="80">
         <f>TRUNC((K49-(E49*12+F49))*30)</f>
@@ -2292,7 +2292,7 @@
       <c r="J49" s="70"/>
       <c r="K49" s="69">
         <f>vinsottari!I2</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L49" s="63" t="s">
         <v>83</v>
@@ -2320,61 +2320,61 @@
       </c>
       <c r="E50" s="78">
         <f>L50</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F50" s="79">
         <f>O50</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G50" s="80">
         <f>R50</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H50" s="81">
         <f>T50</f>
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="I50" s="73"/>
       <c r="J50" s="70"/>
       <c r="K50" s="69">
         <f>K49-ABS(K46)</f>
-        <v>13.137916666666666</v>
+        <v>0.55862500000000193</v>
       </c>
       <c r="L50" s="69">
         <f>TRUNC(K50)</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M50" s="69">
         <f>K50-L50</f>
-        <v>0.13791666666666558</v>
+        <v>0.55862500000000193</v>
       </c>
       <c r="N50" s="63">
         <f>M50*12</f>
-        <v>1.6549999999999869</v>
+        <v>6.7035000000000231</v>
       </c>
       <c r="O50" s="63">
         <f>TRUNC(N50)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P50" s="63">
         <f>N50-O50</f>
-        <v>0.65499999999998693</v>
+        <v>0.70350000000002311</v>
       </c>
       <c r="Q50" s="57">
         <f>P50*30</f>
-        <v>19.649999999999608</v>
+        <v>21.105000000000693</v>
       </c>
       <c r="R50">
         <f>TRUNC(Q50)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S50">
         <f>Q50-R50</f>
-        <v>0.64999999999960778</v>
+        <v>0.10500000000069321</v>
       </c>
       <c r="T50">
         <f>TRUNC(S50*60)</f>
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2415,23 +2415,23 @@
       <c r="D52" s="36"/>
       <c r="E52" s="37" t="str">
         <f>vinsottari!H2</f>
-        <v>Sukra</v>
+        <v>Rabi</v>
       </c>
       <c r="F52" s="38">
         <f>ABS(E48)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G52" s="38">
         <f>ABS(F48)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H52" s="38">
         <f>ABS(G48)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I52" s="39">
         <f>ABS(H48)</f>
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="J52" s="53"/>
       <c r="P52" s="63"/>
@@ -2446,23 +2446,23 @@
       <c r="D53" s="40"/>
       <c r="E53" s="41" t="str">
         <f>E52</f>
-        <v>Sukra</v>
+        <v>Rabi</v>
       </c>
       <c r="F53" s="42">
         <f>E50</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G53" s="42">
         <f>F50</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H53" s="42">
         <f>G50</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I53" s="43">
         <f>H50</f>
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="J53" s="53"/>
       <c r="P53" s="63"/>
@@ -2556,7 +2556,7 @@
       <c r="F58" s="73"/>
       <c r="G58" s="74">
         <f>G42</f>
-        <v>-274.48333333333335</v>
+        <v>725.51666666666642</v>
       </c>
       <c r="H58" s="63"/>
       <c r="I58" s="70"/>
@@ -2580,7 +2580,7 @@
       <c r="F59" s="75"/>
       <c r="G59" s="74">
         <f>Yogini!I2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H59" s="63"/>
       <c r="I59" s="70"/>
@@ -2652,61 +2652,61 @@
       </c>
       <c r="E62" s="78">
         <f>L62</f>
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="F62" s="79">
         <f>O62</f>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="G62" s="80">
         <f>R62</f>
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="H62" s="81">
         <f>T62</f>
-        <v>-37</v>
+        <v>51</v>
       </c>
       <c r="I62" s="73"/>
       <c r="J62" s="70"/>
       <c r="K62" s="69">
         <f>G58*G59/G60</f>
-        <v>-2.4017291666666667</v>
+        <v>7.2551666666666641</v>
       </c>
       <c r="L62" s="69">
         <f>TRUNC(K62)</f>
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="M62" s="69">
         <f>K62-L62</f>
-        <v>-0.40172916666666669</v>
+        <v>0.2551666666666641</v>
       </c>
       <c r="N62" s="63">
         <f>M62*12</f>
-        <v>-4.8207500000000003</v>
+        <v>3.0619999999999692</v>
       </c>
       <c r="O62" s="63">
         <f>TRUNC(N62)</f>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="P62" s="63">
         <f>N62-O62</f>
-        <v>-0.82075000000000031</v>
+        <v>6.1999999999969191E-2</v>
       </c>
       <c r="Q62" s="57">
         <f>P62*30</f>
-        <v>-24.622500000000009</v>
+        <v>1.8599999999990757</v>
       </c>
       <c r="R62">
         <f>TRUNC(Q62)</f>
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="S62">
         <f>Q62-R62</f>
-        <v>-0.62250000000000938</v>
+        <v>0.85999999999907573</v>
       </c>
       <c r="T62">
         <f>TRUNC(S62*60)</f>
-        <v>-37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -2750,25 +2750,25 @@
       <c r="D64" s="63"/>
       <c r="E64" s="78">
         <f>E62</f>
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="F64" s="79">
         <f>F62</f>
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="G64" s="80">
         <f>G62</f>
-        <v>-24</v>
+        <v>1</v>
       </c>
       <c r="H64" s="81">
         <f>H62</f>
-        <v>-37</v>
+        <v>51</v>
       </c>
       <c r="I64" s="73"/>
       <c r="J64" s="70"/>
       <c r="K64" s="69">
         <f>SUM(K62:K63)</f>
-        <v>-2.4017291666666667</v>
+        <v>7.2551666666666641</v>
       </c>
       <c r="L64" s="63"/>
       <c r="M64" s="63"/>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="F65" s="81">
         <f>TRUNC(K65-E65*12)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G65" s="80">
         <f>TRUNC((K65-(E65*12+F65))*30)</f>
@@ -2802,7 +2802,7 @@
       <c r="J65" s="70"/>
       <c r="K65" s="69">
         <f>Yogini!I2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L65" s="63" t="s">
         <v>83</v>
@@ -2830,61 +2830,61 @@
       </c>
       <c r="E66" s="78">
         <f>L66</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F66" s="79">
         <f>O66</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G66" s="80">
         <f>R66</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H66" s="81">
         <f>T66</f>
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="I66" s="73"/>
       <c r="J66" s="70"/>
       <c r="K66" s="69">
         <f>K65-K62</f>
-        <v>9.4017291666666658</v>
+        <v>0.7448333333333359</v>
       </c>
       <c r="L66" s="69">
         <f>TRUNC(K66)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M66" s="69">
         <f>K66-L66</f>
-        <v>0.4017291666666658</v>
+        <v>0.7448333333333359</v>
       </c>
       <c r="N66" s="63">
         <f>M66*12</f>
-        <v>4.8207499999999897</v>
+        <v>8.9380000000000308</v>
       </c>
       <c r="O66" s="63">
         <f>TRUNC(N66)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P66" s="63">
         <f>N66-O66</f>
-        <v>0.82074999999998965</v>
+        <v>0.93800000000003081</v>
       </c>
       <c r="Q66" s="57">
         <f>P66*30</f>
-        <v>24.62249999999969</v>
+        <v>28.140000000000924</v>
       </c>
       <c r="R66">
         <f>TRUNC(Q66)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S66">
         <f>Q66-R66</f>
-        <v>0.62249999999968963</v>
+        <v>0.14000000000092427</v>
       </c>
       <c r="T66">
         <f>TRUNC(S66*60)</f>
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2925,23 +2925,23 @@
       <c r="D68" s="36"/>
       <c r="E68" s="37" t="str">
         <f>Yogini!H2</f>
-        <v>Siddha</v>
+        <v>Sangkata</v>
       </c>
       <c r="F68" s="38">
         <f>ABS(E64)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G68" s="38">
         <f>ABS(F64)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H68" s="38">
         <f>ABS(G64)</f>
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I68" s="39">
         <f>ABS(H64)</f>
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J68" s="53"/>
       <c r="P68" s="63"/>
@@ -2956,23 +2956,23 @@
       <c r="D69" s="40"/>
       <c r="E69" s="41" t="str">
         <f>E68</f>
-        <v>Siddha</v>
+        <v>Sangkata</v>
       </c>
       <c r="F69" s="42">
         <f>E66</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G69" s="42">
         <f>F66</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H69" s="42">
         <f>G66</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I69" s="43">
         <f>H66</f>
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J69" s="53"/>
       <c r="P69" s="63"/>
@@ -3050,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="I2" s="18">
         <f>'Basic Data'!I2</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="18" t="str">
         <f>VLOOKUP(I2,A2:G35,7,FALSE)</f>
@@ -3159,7 +3159,7 @@
       </c>
       <c r="I3" s="18">
         <f>'Basic Data'!I3</f>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="J3" s="18" t="str">
         <f>VLOOKUP(I3,A2:G35,7,FALSE)</f>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="I4" s="18">
         <f>'Basic Data'!I4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="18" t="str">
         <f>VLOOKUP(I4,A2:G35,7,FALSE)</f>
@@ -3240,15 +3240,15 @@
       </c>
       <c r="I5">
         <f>'Basic Data'!I5</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="18" t="str">
         <f>VLOOKUP(I5,A2:G35,7,FALSE)</f>
-        <v>Sukra</v>
+        <v>Rabi</v>
       </c>
       <c r="K5">
         <f>VLOOKUP(I5,A2:F35,6,FALSE)</f>
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3280,11 +3280,11 @@
       </c>
       <c r="I6" s="18">
         <f>I2</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <f>IF(J5=J2,K5,0)</f>
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3316,11 +3316,11 @@
       </c>
       <c r="I7" s="18">
         <f>I3</f>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f>IF(J5=J3,K5,0)</f>
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3352,11 +3352,11 @@
       </c>
       <c r="I8" s="18">
         <f>I4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <f>IF(J4=J5,K5,0)</f>
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3389,11 +3389,11 @@
       </c>
       <c r="K9">
         <f>SUM(K6:K8)</f>
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <f>VLOOKUP(I5,A2:H35,8,FALSE)</f>
-        <v>252</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4160,7 +4160,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,11 +4239,11 @@
       </c>
       <c r="G2" s="10">
         <f>'Dasha Duration'!J14</f>
-        <v>8.7586111111111116</v>
+        <v>38.758611111111108</v>
       </c>
       <c r="I2" s="2">
         <f>IF((I3-1)=0,27,I3-1)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="33" t="str">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="M2" s="2">
         <f>M3-1</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4276,7 +4276,7 @@
       </c>
       <c r="I3" s="2">
         <f>IF(I4-1=0,27,I4-1)</f>
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="K3" s="33" t="str">
         <f>Dasha!J3</f>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="M3" s="2">
         <f>M4-1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -4308,15 +4308,15 @@
       </c>
       <c r="H4" s="16">
         <f>IF(G2&lt;F2,F2,VLOOKUP(G2,F2:F28,1,TRUE))</f>
-        <v>13.333333333333334</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="I4" s="2">
         <f>MATCH(H4,F2:F28,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2" t="str">
         <f>VLOOKUP(I4,A2:B28,2)</f>
-        <v>Ashwini</v>
+        <v>Bharni</v>
       </c>
       <c r="K4" s="33" t="str">
         <f>Dasha!J4</f>
@@ -4324,11 +4324,11 @@
       </c>
       <c r="M4" s="2">
         <f>MATCH(H4,F1:F28,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" t="str">
         <f>J5</f>
-        <v>Bharni</v>
+        <v>Kritika</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -4352,27 +4352,27 @@
       </c>
       <c r="H5" s="16">
         <f>H4+F2</f>
-        <v>26.666666666666668</v>
+        <v>40</v>
       </c>
       <c r="I5" s="2">
         <f>MATCH(H5,F2:F28,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="2" t="str">
         <f>VLOOKUP(I5,A2:B28,2)</f>
-        <v>Bharni</v>
+        <v>Kritika</v>
       </c>
       <c r="K5" s="33" t="str">
         <f>Dasha!J5</f>
-        <v>Sukra</v>
+        <v>Rabi</v>
       </c>
       <c r="M5" s="2">
         <f>MATCH(H5,F2:F28,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" t="str">
         <f>J5</f>
-        <v>Bharni</v>
+        <v>Kritika</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -5051,7 +5051,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5103,19 +5103,19 @@
       </c>
       <c r="F2" s="1">
         <f>'Dasha Duration'!J14</f>
-        <v>8.7586111111111116</v>
+        <v>38.758611111111108</v>
       </c>
       <c r="G2" t="str">
         <f>'Basic Data'!J5</f>
-        <v>Bharni</v>
+        <v>Kritika</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(G2,B2:C28,2,FALSE)</f>
-        <v>Sukra</v>
+        <v>Rabi</v>
       </c>
       <c r="I2">
         <f>VLOOKUP(H2,C2:D28,2,FALSE)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -5543,19 +5543,19 @@
       </c>
       <c r="F2" s="1">
         <f>'Dasha Duration'!J14</f>
-        <v>8.7586111111111116</v>
+        <v>38.758611111111108</v>
       </c>
       <c r="G2" t="str">
         <f>'Basic Data'!J5</f>
-        <v>Bharni</v>
+        <v>Kritika</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(G2,B2:C28,2,FALSE)</f>
-        <v>Siddha</v>
+        <v>Sangkata</v>
       </c>
       <c r="I2">
         <f>VLOOKUP(H2,C2:D28,2,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
